--- a/helpers/acuerdos/Tablas Acuerdos Dolibarr.xlsx
+++ b/helpers/acuerdos/Tablas Acuerdos Dolibarr.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estad\Apps\SimpleOk-ERP\src\areas\acuerdos\models\helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muble\Documents\GitHub\Doki-ERP\helpers\acuerdos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26DD6CF-BB7E-4157-8C15-AE08E867CFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010455B1-C004-4317-A338-F7CAA05AE176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{F5AD1649-4895-4FE3-A631-0B5EFBCC5E5B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5AD1649-4895-4FE3-A631-0B5EFBCC5E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Acuerdo" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
     <sheet name="Lineas" sheetId="2" r:id="rId3"/>
+    <sheet name="Fechas compromiso" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -144,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="244">
   <si>
     <t>ref_ext</t>
   </si>
@@ -837,6 +838,45 @@
   </si>
   <si>
     <t>factura-pro</t>
+  </si>
+  <si>
+    <t>Fecha para entregar</t>
+  </si>
+  <si>
+    <t>fecha_entregar</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>Fecha a despachar</t>
+  </si>
+  <si>
+    <t>Fecha prevista de entrega</t>
+  </si>
+  <si>
+    <t>Nativo</t>
+  </si>
+  <si>
+    <t>Fecha compromiso</t>
+  </si>
+  <si>
+    <t>Dolibarr</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Doki</t>
+  </si>
+  <si>
+    <t>fechaEntrega</t>
+  </si>
+  <si>
+    <t>fechaADespachar</t>
   </si>
 </sst>
 </file>
@@ -872,7 +912,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -921,6 +961,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -934,25 +980,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1065,38 +1146,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1131,26 +1180,26 @@
   <autoFilter ref="A2:I22" xr:uid="{A606F47D-5A42-4024-AD77-E40928CCE601}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{615E3BC1-CB53-41AC-9601-A80A4D9431DB}" name="Columna"/>
-    <tableColumn id="2" xr3:uid="{72D4DC89-A076-41F1-8B3B-0E1804C34CAE}" name="cotizacion" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{4B105C61-350B-4FE5-9A0C-4A68110FA96F}" name="pedido" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{FB476911-D80D-4927-826A-9D57BD50E147}" name="entrega" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{6F62BC6F-A57E-49A9-A34C-5899F158E00C}" name="factura" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{7A701F0B-8A08-494D-AC4A-F51626358474}" name="cotizacion-pro" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{41AE0F8F-4B83-40CB-8B1E-935A7D9BCC7A}" name="pedido-pro" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{9655BD1E-8A5E-4667-86A6-4E17F4C11DC5}" name="entrega-pro" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{14434445-0566-41BB-98CE-1513A169BE26}" name="factura-pro" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{72D4DC89-A076-41F1-8B3B-0E1804C34CAE}" name="cotizacion" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{4B105C61-350B-4FE5-9A0C-4A68110FA96F}" name="pedido" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{FB476911-D80D-4927-826A-9D57BD50E147}" name="entrega" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{6F62BC6F-A57E-49A9-A34C-5899F158E00C}" name="factura" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{7A701F0B-8A08-494D-AC4A-F51626358474}" name="cotizacion-pro" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{41AE0F8F-4B83-40CB-8B1E-935A7D9BCC7A}" name="pedido-pro" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{9655BD1E-8A5E-4667-86A6-4E17F4C11DC5}" name="entrega-pro" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{14434445-0566-41BB-98CE-1513A169BE26}" name="factura-pro" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{71156CB6-A631-490C-9203-41B350CE16FB}" name="Tabla3" displayName="Tabla3" ref="A1:G48" totalsRowShown="0" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{71156CB6-A631-490C-9203-41B350CE16FB}" name="Tabla3" displayName="Tabla3" ref="A1:G48" totalsRowShown="0" dataDxfId="3">
   <autoFilter ref="A1:G48" xr:uid="{71156CB6-A631-490C-9203-41B350CE16FB}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{824E0DF6-FA79-4E52-8DC9-95FC70FC79E9}" name="propal" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{7EF9825C-5689-487B-AE2C-02612F5938B7}" name="commande" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{C4C9F744-E62F-4FFE-B8AD-EC80C856F417}" name="facture" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{824E0DF6-FA79-4E52-8DC9-95FC70FC79E9}" name="propal" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{7EF9825C-5689-487B-AE2C-02612F5938B7}" name="commande" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C4C9F744-E62F-4FFE-B8AD-EC80C856F417}" name="facture" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{A065B3CD-CF08-4F83-8191-733DF20708B1}" name="expedi"/>
     <tableColumn id="5" xr3:uid="{99782591-F0A2-430F-89AC-181A6BB4790A}" name="En Uso"/>
     <tableColumn id="6" xr3:uid="{CC3058DC-25A7-4F5B-AB9D-51BC371A8039}" name="Proveedor"/>
@@ -1161,9 +1210,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1201,7 +1250,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1307,7 +1356,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1449,7 +1498,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1459,20 +1508,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B8BF7A-7C63-4BE4-8F4D-C278672D2ADF}">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -1498,7 +1547,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -1506,7 +1555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>61</v>
       </c>
@@ -1520,7 +1569,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>82</v>
       </c>
@@ -1531,7 +1580,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1551,7 +1600,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>120</v>
       </c>
@@ -1571,7 +1620,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>119</v>
       </c>
@@ -1597,7 +1646,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1617,7 +1666,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1643,7 +1692,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
@@ -1663,7 +1712,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -1683,7 +1732,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>54</v>
       </c>
@@ -1700,7 +1749,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1724,7 +1773,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -1744,7 +1793,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1761,7 +1810,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -1781,7 +1830,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -1798,7 +1847,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1821,7 +1870,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -1847,7 +1896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1870,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -1878,7 +1927,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1889,7 +1938,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -1912,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -1929,7 +1978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -1946,7 +1995,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
@@ -1963,7 +2012,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -1980,7 +2029,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>16</v>
       </c>
@@ -1994,7 +2043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
@@ -2008,7 +2057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
@@ -2025,7 +2074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>22</v>
       </c>
@@ -2042,7 +2091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>41</v>
       </c>
@@ -2056,7 +2105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>43</v>
       </c>
@@ -2070,7 +2119,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>45</v>
       </c>
@@ -2084,7 +2133,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>44</v>
       </c>
@@ -2098,7 +2147,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>42</v>
       </c>
@@ -2112,7 +2161,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -2135,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
@@ -2158,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
@@ -2181,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
@@ -2198,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
@@ -2218,7 +2267,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>14</v>
       </c>
@@ -2232,7 +2281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>12</v>
       </c>
@@ -2246,7 +2295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
@@ -2269,7 +2318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>9</v>
       </c>
@@ -2283,7 +2332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>3</v>
       </c>
@@ -2300,7 +2349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
@@ -2311,7 +2360,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>19</v>
       </c>
@@ -2325,7 +2374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>15</v>
       </c>
@@ -2339,12 +2388,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>122</v>
       </c>
@@ -2352,7 +2401,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>28</v>
       </c>
@@ -2360,7 +2409,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>57</v>
       </c>
@@ -2368,7 +2417,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>121</v>
       </c>
@@ -2379,12 +2428,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -2395,7 +2444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2406,7 +2455,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>35</v>
       </c>
@@ -2414,17 +2463,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>31</v>
       </c>
@@ -2438,12 +2487,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>53</v>
       </c>
@@ -2454,7 +2503,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>62</v>
       </c>
@@ -2462,7 +2511,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>24</v>
       </c>
@@ -2470,7 +2519,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>124</v>
       </c>
@@ -2478,7 +2527,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>125</v>
       </c>
@@ -2486,7 +2535,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>123</v>
       </c>
@@ -2494,7 +2543,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>1</v>
       </c>
@@ -2508,7 +2557,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>13</v>
       </c>
@@ -2519,27 +2568,27 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>64</v>
       </c>
@@ -2547,12 +2596,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>60</v>
       </c>
@@ -2560,17 +2609,17 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>63</v>
       </c>
@@ -2600,33 +2649,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7998A18F-9926-4416-A879-7FC89A5495D5}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="1" max="1" width="41.109375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>226</v>
       </c>
@@ -2655,577 +2704,577 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>204</v>
       </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>205</v>
       </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>208</v>
       </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>209</v>
       </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>210</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>211</v>
       </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>212</v>
       </c>
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>213</v>
       </c>
-      <c r="B15" s="7">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>215</v>
       </c>
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1</v>
-      </c>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>216</v>
       </c>
-      <c r="B18" s="7">
-        <v>1</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>217</v>
       </c>
-      <c r="B19" s="7">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>218</v>
       </c>
-      <c r="B20" s="7">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>219</v>
       </c>
-      <c r="B21" s="7">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>220</v>
       </c>
-      <c r="B22" s="7">
-        <v>1</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1</v>
-      </c>
-      <c r="F22" s="7">
-        <v>1</v>
-      </c>
-      <c r="G22" s="7">
-        <v>1</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3255,18 +3304,18 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>149</v>
       </c>
@@ -3289,7 +3338,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>150</v>
       </c>
@@ -3303,7 +3352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>153</v>
       </c>
@@ -3320,7 +3369,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>156</v>
       </c>
@@ -3337,7 +3386,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>159</v>
       </c>
@@ -3354,7 +3403,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>161</v>
       </c>
@@ -3371,7 +3420,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>167</v>
       </c>
@@ -3388,7 +3437,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>145</v>
       </c>
@@ -3408,7 +3457,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>146</v>
       </c>
@@ -3428,7 +3477,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -3445,7 +3494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -3465,7 +3514,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>168</v>
       </c>
@@ -3482,7 +3531,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>169</v>
       </c>
@@ -3499,7 +3548,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>172</v>
       </c>
@@ -3516,7 +3565,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>151</v>
       </c>
@@ -3530,7 +3579,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>152</v>
       </c>
@@ -3544,7 +3593,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>154</v>
       </c>
@@ -3561,19 +3610,19 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="C18" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="C19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" t="s">
         <v>179</v>
@@ -3582,7 +3631,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -3596,7 +3645,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>155</v>
       </c>
@@ -3610,7 +3659,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="C23" t="s">
         <v>177</v>
@@ -3619,7 +3668,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>157</v>
       </c>
@@ -3630,7 +3679,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>158</v>
       </c>
@@ -3641,19 +3690,19 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="C26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="C27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -3667,7 +3716,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>160</v>
       </c>
@@ -3681,7 +3730,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>162</v>
       </c>
@@ -3695,7 +3744,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>163</v>
       </c>
@@ -3709,7 +3758,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>164</v>
       </c>
@@ -3723,7 +3772,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>165</v>
       </c>
@@ -3737,7 +3786,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -3751,7 +3800,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>166</v>
       </c>
@@ -3765,7 +3814,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>43</v>
       </c>
@@ -3779,7 +3828,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
@@ -3793,7 +3842,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>44</v>
       </c>
@@ -3807,7 +3856,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>123</v>
       </c>
@@ -3818,7 +3867,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>0</v>
       </c>
@@ -3829,7 +3878,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
@@ -3843,12 +3892,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
@@ -3862,7 +3911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>170</v>
       </c>
@@ -3876,7 +3925,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>171</v>
       </c>
@@ -3890,7 +3939,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>19</v>
       </c>
@@ -3904,7 +3953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
@@ -3918,7 +3967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>173</v>
       </c>
@@ -3942,4 +3991,132 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A9A846-7CE3-49DC-98BF-470759856701}">
+  <dimension ref="B1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="22.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B7:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>